--- a/漢字（かんじ）/b.xlsx
+++ b/漢字（かんじ）/b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD123C-4584-4F01-97C1-888CB58F87D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13B98D-40F8-4E62-9041-629940176CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-492" yWindow="0" windowWidth="14244" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ば" sheetId="1" r:id="rId1"/>
@@ -405,13 +405,6 @@
     <t>作文｜さくぶん
 文系｜ぶんけい
 文献｜ぶんけん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理｜ぶつり
-物流｜ぶつりゅう
-動物｜どうぶつ
-名物｜めいぶつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,6 +449,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>劇場版｜げきじょうばん
+速報版｜そくほうばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誕生日｜たんじょうび
+次日｜つぎび
+稼働日｜かどうび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別｜とくべつ
+類別｜るいべつ
+区別｜くべつ
+分別｜ぶんべつ
+別様｜べつよう
+送別｜そうべつ
+別荘｜べっそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望｜よくぼう
+希望｜きぼう
+絶望｜ぜつぼう
+願望｜がんぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜群｜ばつぐん
+効果抜群｜こうかばつぐん
+抜擢｜ばってき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤勉｜きんべん
+勉強｜べんきょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分析｜ぶんせき
 分類｜ぶんるい
 区分｜くぶん
@@ -464,46 +496,16 @@
 成分｜せいぶん
 成分表｜せいぶんひょう
 余分｜よぶん
-処分｜しょぶん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劇場版｜げきじょうばん
-速報版｜そくほうばん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>誕生日｜たんじょうび
-次日｜つぎび
-稼働日｜かどうび</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特別｜とくべつ
-類別｜るいべつ
-区別｜くべつ
-分別｜ぶんべつ
-別様｜べつよう
-送別｜そうべつ
-別荘｜べっそう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望｜よくぼう
-希望｜きぼう
-絶望｜ぜつぼう
-願望｜がんぼう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抜群｜ばつぐん
-効果抜群｜こうかばつぐん
-抜擢｜ばってき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勤勉｜きんべん
-勉強｜べんきょう</t>
+処分｜しょぶん　
+分野｜ぶんや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理｜ぶつり
+物流｜ぶつりゅう
+動物｜どうぶつ
+名物｜めいぶつ
+見物人｜けんぶつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -933,7 +935,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1007,7 +1009,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1072,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1130,10 +1132,10 @@
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1149,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406BB96D-B676-4D89-8F55-0443891C0B2F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1196,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1243,7 +1245,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="162" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="180" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9946FC-1B84-4985-A380-F37B32194E52}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1293,7 +1295,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1326,7 +1328,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1455,7 +1457,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/b.xlsx
+++ b/漢字（かんじ）/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13B98D-40F8-4E62-9041-629940176CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE51E9D-F730-4B66-8E8F-E7DC1B82EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ば" sheetId="1" r:id="rId1"/>
@@ -332,12 +332,6 @@
   </si>
   <si>
     <t>素描｜そびょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備｜じゅんび
-備蓄｜びちく
-備蓄品｜びちくひん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,11 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>劇場版｜げきじょうばん
-速報版｜そくほうばん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>誕生日｜たんじょうび
 次日｜つぎび
 稼働日｜かどうび</t>
@@ -506,6 +495,19 @@
 動物｜どうぶつ
 名物｜めいぶつ
 見物人｜けんぶつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇場版｜げきじょうばん
+速報版｜そくほうばん
+体験版｜たいけんばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備｜じゅんび
+設備｜せつび
+備蓄｜びちく
+備蓄品｜びちくひん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -904,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -927,7 +929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -935,7 +937,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -954,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -979,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1009,7 +1011,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1022,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E4C6A2-4A3C-4B95-95F2-293371EFE3B1}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1042,15 +1044,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
+      <c r="C2" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1061,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1072,7 +1074,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1132,10 +1134,10 @@
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1151,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406BB96D-B676-4D89-8F55-0443891C0B2F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1189,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1198,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1206,10 +1208,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1217,10 +1219,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1228,10 +1230,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1242,7 +1244,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -1253,7 +1255,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1297,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1317,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1328,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1402,7 +1404,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1457,7 +1459,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1465,10 +1467,10 @@
         <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/b.xlsx
+++ b/漢字（かんじ）/b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE51E9D-F730-4B66-8E8F-E7DC1B82EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77A84D-66FF-448D-855F-788B8DB9D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ば" sheetId="1" r:id="rId1"/>
@@ -406,10 +406,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>部長｜ぶちょう
+部分｜ぶぶん
+部隊｜ぶたい
+全部｜ぜんぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売場｜うりば
+場合｜ばあい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誕生日｜たんじょうび
+次日｜つぎび
+稼働日｜かどうび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別｜とくべつ
+類別｜るいべつ
+区別｜くべつ
+分別｜ぶんべつ
+別様｜べつよう
+送別｜そうべつ
+別荘｜べっそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望｜よくぼう
+希望｜きぼう
+絶望｜ぜつぼう
+願望｜がんぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜群｜ばつぐん
+効果抜群｜こうかばつぐん
+抜擢｜ばってき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤勉｜きんべん
+勉強｜べんきょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析｜ぶんせき
+分類｜ぶんるい
+区分｜くぶん
+分別｜ぶんべつ
+部分｜ぶぶん
+成分｜せいぶん
+成分表｜せいぶんひょう
+余分｜よぶん
+処分｜しょぶん　
+分野｜ぶんや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理｜ぶつり
+物流｜ぶつりゅう
+動物｜どうぶつ
+名物｜めいぶつ
+見物人｜けんぶつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇場版｜げきじょうばん
+速報版｜そくほうばん
+体験版｜たいけんばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備｜じゅんび
+設備｜せつび
+備蓄｜びちく
+備蓄品｜びちくひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="128"/>
@@ -421,7 +501,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -430,92 +510,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>部長｜ぶちょう
-部分｜ぶぶん
-部隊｜ぶたい
-全部｜ぜんぶ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>売場｜うりば
-場合｜ばあい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>誕生日｜たんじょうび
-次日｜つぎび
-稼働日｜かどうび</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特別｜とくべつ
-類別｜るいべつ
-区別｜くべつ
-分別｜ぶんべつ
-別様｜べつよう
-送別｜そうべつ
-別荘｜べっそう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望｜よくぼう
-希望｜きぼう
-絶望｜ぜつぼう
-願望｜がんぼう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抜群｜ばつぐん
-効果抜群｜こうかばつぐん
-抜擢｜ばってき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勤勉｜きんべん
-勉強｜べんきょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析｜ぶんせき
-分類｜ぶんるい
-区分｜くぶん
-分別｜ぶんべつ
-部分｜ぶぶん
-成分｜せいぶん
-成分表｜せいぶんひょう
-余分｜よぶん
-処分｜しょぶん　
-分野｜ぶんや</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理｜ぶつり
-物流｜ぶつりゅう
-動物｜どうぶつ
-名物｜めいぶつ
-見物人｜けんぶつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劇場版｜げきじょうばん
-速報版｜そくほうばん
-体験版｜たいけんばん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備｜じゅんび
-設備｜せつび
-備蓄｜びちく
-備蓄品｜びちくひん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +552,28 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -573,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -586,6 +608,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -906,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -937,7 +962,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1011,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1024,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E4C6A2-4A3C-4B95-95F2-293371EFE3B1}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1074,7 +1099,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1136,8 +1161,8 @@
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>85</v>
+      <c r="C10" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1191,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1200,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1255,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1322,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1330,7 +1355,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1354,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC100433-7973-4281-AEA3-9765DFAD6AE6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1484,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/b.xlsx
+++ b/漢字（かんじ）/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77A84D-66FF-448D-855F-788B8DB9D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8094DD4-639F-47D5-8EFC-BC1B4FF780E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ば" sheetId="1" r:id="rId1"/>
@@ -403,13 +403,6 @@
   </si>
   <si>
     <t>平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部長｜ぶちょう
-部分｜ぶぶん
-部隊｜ぶたい
-全部｜ぜんぶ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,6 +501,14 @@
       </rPr>
       <t>平等主義｜びょうどうしゅぎ</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部長｜ぶちょう
+部分｜ぶぶん
+部隊｜ぶたい
+部品｜ぶひん
+全部｜ぜんぶ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -962,7 +963,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1036,7 +1037,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1099,7 +1100,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1162,7 +1163,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1178,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406BB96D-B676-4D89-8F55-0443891C0B2F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1225,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1280,7 +1281,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1323,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1355,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1379,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC100433-7973-4281-AEA3-9765DFAD6AE6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/b.xlsx
+++ b/漢字（かんじ）/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8094DD4-639F-47D5-8EFC-BC1B4FF780E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A5B70-32C1-4FB5-B63E-476B3F277F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ば" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>場</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,23 @@
 部隊｜ぶたい
 部品｜ぶひん
 全部｜ぜんぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓶｜かびん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過敏｜かびん
+敏感｜びんかん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E4C6A2-4A3C-4B95-95F2-293371EFE3B1}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1116,58 +1133,80 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="52.2" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="52.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="C11" s="1"/>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1179,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406BB96D-B676-4D89-8F55-0443891C0B2F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/漢字（かんじ）/b.xlsx
+++ b/漢字（かんじ）/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A5B70-32C1-4FB5-B63E-476B3F277F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936CE0F-AA86-4C6E-86A0-6FE48327557A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ば" sheetId="1" r:id="rId1"/>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E4C6A2-4A3C-4B95-95F2-293371EFE3B1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC100433-7973-4281-AEA3-9765DFAD6AE6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/漢字（かんじ）/b.xlsx
+++ b/漢字（かんじ）/b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936CE0F-AA86-4C6E-86A0-6FE48327557A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB6F05-4B5A-4DCD-B064-D8B21053BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ば" sheetId="1" r:id="rId1"/>
@@ -371,10 +371,6 @@
     <t>売店｜ばいてん
 自動販売機｜じどうはんばいき
 発売｜はつばい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>評判｜ひょうばん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,6 +522,11 @@
   <si>
     <t>過敏｜かびん
 敏感｜びんかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評判｜ひょうばん
+裁判｜さいばん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -949,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -980,7 +981,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -994,15 +995,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1054,7 +1055,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1117,7 +1118,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1133,10 +1134,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1144,10 +1145,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1199,10 +1200,10 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1256,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1265,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1309,7 +1310,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -1320,7 +1321,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1395,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1419,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC100433-7973-4281-AEA3-9765DFAD6AE6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1469,7 +1470,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1524,7 +1525,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1532,10 +1533,10 @@
         <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
